--- a/EC/Train Runs and Enforcements 2016-05-11.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="403">
   <si>
     <t>Train ID</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>224-11</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Tentative conclusion (onboard logs not available yet) - overspeed led to comparator issue, ran in ATC for rest of run to keep schedule</t>
   </si>
   <si>
@@ -1263,6 +1260,9 @@
   </si>
   <si>
     <t>Cause TBD - Onboard logs not available yet</t>
+  </si>
+  <si>
+    <t>Open - still need onboard logs</t>
   </si>
 </sst>
 </file>
@@ -1752,132 +1752,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -1926,6 +1801,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1954,179 +1850,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2412,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q120" sqref="Q120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6517,10 +6240,10 @@
         <v>41.099999999860302</v>
       </c>
       <c r="Q49" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="R49" s="62" t="s">
         <v>397</v>
-      </c>
-      <c r="R49" s="62" t="s">
-        <v>398</v>
       </c>
       <c r="T49" s="75" t="str">
         <f t="shared" si="3"/>
@@ -9927,7 +9650,7 @@
         <v>206</v>
       </c>
       <c r="R90" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="T90" s="75" t="str">
         <f t="shared" si="21"/>
@@ -10918,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f t="shared" ref="K102:K133" si="29">IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
+        <f t="shared" ref="K102:K127" si="29">IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11182,7 +10905,7 @@
         <v>3.3217592594155576E-2</v>
       </c>
       <c r="N105" s="13">
-        <f t="shared" ref="N105:P134" si="30">$M105*24*60</f>
+        <f t="shared" ref="N105:P127" si="30">$M105*24*60</f>
         <v>47.83333333558403</v>
       </c>
       <c r="O105" s="13"/>
@@ -12447,9 +12170,11 @@
         <f t="shared" si="30"/>
         <v>40.633333339355886</v>
       </c>
-      <c r="Q120" s="62"/>
+      <c r="Q120" s="62" t="s">
+        <v>402</v>
+      </c>
       <c r="R120" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T120" s="75" t="str">
         <f t="shared" si="21"/>
@@ -14700,28 +14425,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150:P150 A3:R149">
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="10" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="9" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q150:R150">
-    <cfRule type="expression" dxfId="21" priority="76">
+    <cfRule type="expression" dxfId="8" priority="76">
       <formula>$P150&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="77">
+    <cfRule type="expression" dxfId="7" priority="77">
       <formula>$O169&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14753,7 +14478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
@@ -15482,7 +15207,7 @@
         <v>112</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15617,7 +15342,7 @@
         <v>111</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -17336,17 +17061,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:N65 B27:L28 N27:N28 B46:L62 N46:N62 M27:M62 B3:N26">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-11.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-11.xlsx
@@ -1544,9 +1544,6 @@
     <t>Ticket needed</t>
   </si>
   <si>
-    <t>Onboard logs and messaging logs do not indicate any issue. Was this cut out due to operational issues?</t>
-  </si>
-  <si>
     <t>Investigating</t>
   </si>
   <si>
@@ -1554,6 +1551,9 @@
   </si>
   <si>
     <t>Initialized too close to switch</t>
+  </si>
+  <si>
+    <t>after reviewing Onboard, Comms and DTO service logs no issues were found to explain the cutout at Peoria. Only remaing conclusing is operational.</t>
   </si>
 </sst>
 </file>
@@ -2412,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M151" sqref="M151:O151"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6436,10 +6436,10 @@
         <v>41.099999999860302</v>
       </c>
       <c r="Q48" s="62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R48" s="62" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="T48" s="75" t="str">
         <f t="shared" si="11"/>
@@ -12370,7 +12370,7 @@
         <v>205</v>
       </c>
       <c r="R119" s="62" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T119" s="75" t="str">
         <f t="shared" si="31"/>
@@ -17501,7 +17501,7 @@
         <v>111</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
